--- a/data/trans_dic/P32E$casa_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1082,7 +1082,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5486205742062245</v>
+        <v>0.5486205742062246</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.6279477386446504</v>
+        <v>0.6649581361629027</v>
       </c>
     </row>
     <row r="7">
@@ -647,11 +647,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6025087761744554</v>
+        <v>0.6732328709010594</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.5869138611631164</v>
+        <v>0.5582894963212833</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4996220165927093</v>
+        <v>0.4996220165927092</v>
       </c>
     </row>
     <row r="11">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2725920207967065</v>
+        <v>0.2748710009775119</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.2608236733182748</v>
+        <v>0.260552034790953</v>
       </c>
     </row>
     <row r="12">
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7752241855684393</v>
+        <v>0.7590948758736841</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.7094328586357346</v>
+        <v>0.7413437672324831</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         <v>0.3486856021495914</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4605028657420468</v>
+        <v>0.4605028657420466</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1729443736306197</v>
+        <v>0.1200385793944464</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1019084098438158</v>
+        <v>0.1176307349964666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.209727082587663</v>
+        <v>0.2064366209875006</v>
       </c>
     </row>
     <row r="15">
@@ -754,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7572154034093775</v>
+        <v>0.7262624529413243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7217911048768351</v>
+        <v>0.7345813686538326</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7652977644555947</v>
+        <v>0.7652977644555948</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1</v>
@@ -789,11 +789,11 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0</v>
+        <v>0.3752197918947291</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.2968849533292959</v>
+        <v>0.2957034708224395</v>
       </c>
     </row>
     <row r="18">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1877153374512021</v>
+        <v>0.1922756801241503</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1817596642181706</v>
+        <v>0.1949988132328304</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5142646797383619</v>
+        <v>0.5387909037690064</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6205399079129044</v>
+        <v>0.5987367272181884</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4788716922372253</v>
+        <v>0.4815182228555789</v>
       </c>
     </row>
     <row r="22">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6004684147693601</v>
+        <v>0.6004684147693603</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3117733285144161</v>
+        <v>0.311773328514416</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5112300275953142</v>
+        <v>0.5112300275953144</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4236716449321791</v>
+        <v>0.4276396931986537</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1274466165577649</v>
+        <v>0.1345198873531429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3648214491675545</v>
+        <v>0.3650606672596494</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7570648558077502</v>
+        <v>0.76269480268961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5975962653658955</v>
+        <v>0.5915396856550078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6516722629135033</v>
+        <v>0.6498459837885072</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.6477916134872589</v>
+        <v>0.6477916134872586</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.5547871870158344</v>
+        <v>0.5547871870158342</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.6214558446446342</v>
+        <v>0.6214558446446341</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4865837839105327</v>
+        <v>0.467069309747212</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2987746805152521</v>
+        <v>0.299585102238838</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4865286229328745</v>
+        <v>0.4893024731677564</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7904054619275254</v>
+        <v>0.7779327538060292</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.79512673773936</v>
+        <v>0.7746410008396277</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7455546206466452</v>
+        <v>0.7454142328459296</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="31">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4042</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="8">
@@ -1257,11 +1257,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6021</v>
+        <v>6728</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6924</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="12">
@@ -1310,11 +1310,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4426</v>
+        <v>4463</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>4480</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="15">
@@ -1325,11 +1325,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12586</v>
+        <v>12324</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>12187</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="16">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2049</v>
+        <v>1422</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1180</v>
+        <v>1362</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4912</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="19">
@@ -1398,10 +1398,10 @@
         <v>11845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8767</v>
+        <v>8409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16907</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="20">
@@ -1450,11 +1450,11 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="23">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5122</v>
+        <v>5247</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6257</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="27">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14033</v>
+        <v>14703</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4429</v>
+        <v>4273</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16485</v>
+        <v>16576</v>
       </c>
     </row>
     <row r="28">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18605</v>
+        <v>18779</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2504</v>
+        <v>2643</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23188</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="31">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>33245</v>
+        <v>33492</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11741</v>
+        <v>11622</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41420</v>
+        <v>41304</v>
       </c>
     </row>
     <row r="32">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22755</v>
+        <v>21842</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5519</v>
+        <v>5534</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>31739</v>
+        <v>31920</v>
       </c>
     </row>
     <row r="35">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>36963</v>
+        <v>36379</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>14688</v>
+        <v>14310</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>48637</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="36">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
     </row>
     <row r="39">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
     </row>
     <row r="40">
